--- a/AI Assistant/4. test results/response time/web search results.xlsx
+++ b/AI Assistant/4. test results/response time/web search results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\finalyearproject\eOverlay\test results\response time\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\finalyearproject\AI Assistant\4. test results\response time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E331037A-98D6-4495-9CAE-88BD66477BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E45D008-9FEC-4A9F-B25A-18E314FCAE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31065" yWindow="885" windowWidth="21600" windowHeight="11505" xr2:uid="{CB731D9C-4ECD-4156-944C-A3D70F6791D8}"/>
+    <workbookView xWindow="28860" yWindow="210" windowWidth="21600" windowHeight="11520" xr2:uid="{CB731D9C-4ECD-4156-944C-A3D70F6791D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACB5F6A-A85C-4AB4-B62E-1B10640907EE}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>14.783026</v>
+        <v>6.6414080000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -506,7 +506,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>9.7887079999999997</v>
+        <v>6.0537219999999996</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -514,7 +514,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>13.292414000000001</v>
+        <v>4.2836559999999997</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -522,7 +522,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>10.576895</v>
+        <v>5.471063</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -530,7 +530,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>15.236915</v>
+        <v>6.2161850000000003</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -539,7 +539,7 @@
       </c>
       <c r="C7">
         <f>AVERAGE(C2:C6)</f>
-        <v>12.735591600000001</v>
+        <v>5.7332067999999996</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>13.111800000000001</v>
+        <v>8.9825999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -561,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>12.401436</v>
+        <v>9.8398610000000009</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>11.179949000000001</v>
+        <v>10.491323</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>15.187567</v>
+        <v>9.5266140000000004</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>13.423178</v>
+        <v>11.299697</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -594,7 +594,7 @@
       </c>
       <c r="C14">
         <f>AVERAGE(C9:C13)</f>
-        <v>13.060786000000002</v>
+        <v>10.028019</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>18.789802999999999</v>
+        <v>7.9589809999999996</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>14.186289</v>
+        <v>11.309157000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>20.58586</v>
+        <v>10.842063</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>18.238748999999999</v>
+        <v>8.5979390000000002</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>11.816817</v>
+        <v>9.2124989999999993</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -649,7 +649,7 @@
       </c>
       <c r="C21">
         <f>AVERAGE(C16:C20)</f>
-        <v>16.723503600000001</v>
+        <v>9.584127800000001</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>24.539192</v>
+        <v>20.718164000000002</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>28.735413999999999</v>
+        <v>20.310960000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>21.096665000000002</v>
+        <v>19.189965000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>27.822161999999999</v>
+        <v>20.822161999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>24.204592000000002</v>
+        <v>18.204592000000002</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -704,7 +704,7 @@
       </c>
       <c r="C28">
         <f>AVERAGE(C23:C27)</f>
-        <v>25.279605</v>
+        <v>19.849168600000002</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>31.222352000000001</v>
+        <v>23.735951</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -726,7 +726,7 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>39.927788999999997</v>
+        <v>23.033013</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -734,7 +734,7 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>35.914344999999997</v>
+        <v>27.299296999999999</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,7 +742,7 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>33.168671000000003</v>
+        <v>23.168671</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -750,7 +750,7 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>42.238095000000001</v>
+        <v>26.157457000000001</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
       </c>
       <c r="C35">
         <f>AVERAGE(C30:C34)</f>
-        <v>36.494250399999999</v>
+        <v>24.678877799999999</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
